--- a/src/test/resources/all_ok.xlsx
+++ b/src/test/resources/all_ok.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="X63vqxGaR0w3itOZCFSudR4Bv4X4jNKmFGHlbFTqctsd/u8oR4S3M35A+12MYHgTdmTrEWGpbu8lqphyfAAk9w==" workbookSaltValue="kUk0Az6feS+owcQsOXQmqw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ДАННЫЕ О ВАШЕЙ ОРГАНИЗАЦИИ" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="1492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="1496">
   <si>
     <t>ООО Ромашка</t>
   </si>
@@ -4972,6 +4972,18 @@
   </si>
   <si>
     <t>Байтлесов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Управление МЧС по РБ </t>
+  </si>
+  <si>
+    <t>Организации, осуществляющие деятельность в сфере противопожарной безопасности</t>
+  </si>
+  <si>
+    <t>Росгвардия</t>
+  </si>
+  <si>
+    <t>Частные охранные предприятия</t>
   </si>
 </sst>
 </file>
@@ -5411,7 +5423,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5569,6 +5581,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5935,12 +5953,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="48" t="s">
         <v>80</v>
       </c>
@@ -6034,10 +6052,10 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="67"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6142,12 +6160,12 @@
       <c r="B1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
@@ -6156,10 +6174,10 @@
       <c r="B2" s="36">
         <v>32</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
@@ -7370,7 +7388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1058" workbookViewId="0">
+    <sheetView topLeftCell="A1058" workbookViewId="0">
       <selection activeCell="A1090" sqref="A1090"/>
     </sheetView>
   </sheetViews>
@@ -20636,10 +20654,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20651,14 +20669,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="74" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="74"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
@@ -20753,9 +20771,6 @@
       <c r="B9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="57" t="s">
-        <v>1489</v>
-      </c>
       <c r="D9" s="31" t="s">
         <v>18</v>
       </c>
@@ -20868,8 +20883,33 @@
         <v>88</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="66">
+        <v>17</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="66">
+        <v>18</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="31" t="s">
+        <v>1495</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="h2bPIfeeSWi4FIqsovyPQca9epcrkkYTcbnwwGUiQn6FCg29M/BfJ9xXuo+rKQYjo+6iAf0L76Jq64fBSu1FyA==" saltValue="9MXVZdyUkMLCWfg7p9RAwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -20902,15 +20942,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="80"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -20992,10 +21032,10 @@
     </row>
     <row r="9" spans="1:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="78"/>
     </row>
     <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
